--- a/Sistema/Dados Cadastrais.xlsx
+++ b/Sistema/Dados Cadastrais.xlsx
@@ -2,30 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Alunos" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Professores" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Turma 1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Turma 2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Turma 3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Turma 4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Turma 5" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Turma 6" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Turma 7" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -34,19 +27,12 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,36 +52,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -451,125 +420,678 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col width="12.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="19.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>CPF</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Login</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Senha</t>
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aluno 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>123456789-12</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aluno 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123456789-13</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>aluno 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>123456789-14</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>aluno 4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>123456789-15</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>aluno 5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>123456789-16</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>aluno 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>123456789-17</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>aluno 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>123456789-18</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>aluno 8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123456789-19</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>aluno 9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>123456789-20</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>aluno 10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>123456789-21</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>aluno 11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>123456789-22</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>aluno 12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>123456789-23</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>aluno 13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>123456789-24</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>aluno 14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>123456789-25</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>aluno 15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123456789-26</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>aluno 16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>123456789-27</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>aluno 17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>123456789-28</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>aluno 18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>123456789-29</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>aluno 19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>123456789-30</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>aluno 20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>123456789-31</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>aluno 21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>123456789-32</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>aluno 22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>123456789-33</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>aluno 23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>123456789-34</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>aluno 24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>123456789-35</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>aluno 25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>123456789-36</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>aluno 26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>123456789-37</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>aluno 27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>123456789-38</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>aluno 28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>123456789-39</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>aluno 29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>123456789-40</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Joao</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>45612378912</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>asdasad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>joao32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ZnRRqTj</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" display="teste@gmail.com 1" r:id="rId2"/>
+    <hyperlink ref="C4" display="teste@gmail.com 1" r:id="rId3"/>
+    <hyperlink ref="C5" display="teste@gmail.com 1" r:id="rId4"/>
+    <hyperlink ref="C6" display="teste@gmail.com 1" r:id="rId5"/>
+    <hyperlink ref="C7" display="teste@gmail.com 1" r:id="rId6"/>
+    <hyperlink ref="C8" display="teste@gmail.com 1" r:id="rId7"/>
+    <hyperlink ref="C9" display="teste@gmail.com 1" r:id="rId8"/>
+    <hyperlink ref="C10" display="teste@gmail.com 1" r:id="rId9"/>
+    <hyperlink ref="C11" display="teste@gmail.com 1" r:id="rId10"/>
+    <hyperlink ref="C12" display="teste@gmail.com 1" r:id="rId11"/>
+    <hyperlink ref="C13" display="teste@gmail.com 1" r:id="rId12"/>
+    <hyperlink ref="C14" display="teste@gmail.com 1" r:id="rId13"/>
+    <hyperlink ref="C15" display="teste@gmail.com 1" r:id="rId14"/>
+    <hyperlink ref="C16" display="teste@gmail.com 1" r:id="rId15"/>
+    <hyperlink ref="C17" display="teste@gmail.com 1" r:id="rId16"/>
+    <hyperlink ref="C18" display="teste@gmail.com 1" r:id="rId17"/>
+    <hyperlink ref="C19" display="teste@gmail.com 1" r:id="rId18"/>
+    <hyperlink ref="C20" display="teste@gmail.com 1" r:id="rId19"/>
+    <hyperlink ref="C21" display="teste@gmail.com 1" r:id="rId20"/>
+    <hyperlink ref="C22" display="teste@gmail.com 1" r:id="rId21"/>
+    <hyperlink ref="C23" display="teste@gmail.com 1" r:id="rId22"/>
+    <hyperlink ref="C24" display="teste@gmail.com 1" r:id="rId23"/>
+    <hyperlink ref="C25" display="teste@gmail.com 1" r:id="rId24"/>
+    <hyperlink ref="C26" display="teste@gmail.com 1" r:id="rId25"/>
+    <hyperlink ref="C27" display="teste@gmail.com 1" r:id="rId26"/>
+    <hyperlink ref="C28" display="teste@gmail.com 1" r:id="rId27"/>
+    <hyperlink ref="C29" display="teste@gmail.com 1" r:id="rId28"/>
+    <hyperlink ref="C30" display="teste@gmail.com 1" r:id="rId29"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>CPF</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Login</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Senha</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Silva</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>78945612345</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>silvat@teste.com</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>silva77</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>78945612345</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -579,209 +1101,71 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Aluno</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Nome do Professor</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Aluno</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Nome do Professor</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.42578125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="12" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="17.7109375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="16" bestFit="1" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Aluno</t>
+          <t>Alunos</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Nome do Professor</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Aluno</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Nome do Professor</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Aluno</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Nome do Professor</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Aluno</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Nome do Professor</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Aluno</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Nome do Professor</t>
+          <t>CPF</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Professores</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>CPF</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Grupos</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Inicio de Semestre</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Fim de Semestre</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Silva</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78945612345</t>
         </is>
       </c>
     </row>

--- a/Sistema/Dados Cadastrais.xlsx
+++ b/Sistema/Dados Cadastrais.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Alunos" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Professores" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Turma 1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Turma 2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
@@ -18,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -33,6 +34,11 @@
       <color theme="10"/>
       <sz val="11"/>
       <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,9 +62,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,13 +434,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="12.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="19.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
@@ -981,6 +990,33 @@
       <c r="E31" t="inlineStr">
         <is>
           <t>ZnRRqTj</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>147852369-14</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>pedro@gmail.com</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>pedro31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>LX6cjEH</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,6 +1122,60 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>78945612345</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Paulo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>15785297584</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>paulo@teste.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>paulo31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15785297584</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>laura</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>985748127-59</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>laura@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>laura61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>985748127-59</t>
         </is>
       </c>
     </row>
@@ -1101,71 +1191,844 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="11.42578125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="12" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="16" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="40" customWidth="1" min="1" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Alunos</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>CPF</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Professores</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>CPF - Prof</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Grupos</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Inicio de Semestre</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Fim de Semestre</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aluno 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>123456789-12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>laura</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>985748127-59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Grupo 1 - aluno 1, aluno 2, aluno 3, aluno 4, aluno 5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aluno 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123456789-13</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Silva</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78945612345</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Grupo 2 - aluno 6, aluno 7, aluno 8, aluno 9, aluno 10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>aluno 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>123456789-14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Grupo 3 - aluno 11, aluno 12, aluno 13, aluno 14, aluno 15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>aluno 4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>123456789-15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>aluno 5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>123456789-16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>aluno 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>123456789-17</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>aluno 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>123456789-18</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 7</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>aluno 8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123456789-19</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 8</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>aluno 9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>123456789-20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 9</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>aluno 10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>123456789-21</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>aluno 11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>123456789-22</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>aluno 12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>123456789-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>aluno 13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>123456789-24</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>aluno 14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>123456789-25</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>aluno 15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>123456789-26</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10/10/2010</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>08/04/2011</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Alunos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>CPF</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Professores</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>CPF - Prof</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Grupos</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Inicio de Semestre</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Fim de Semestre</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Silva</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78945612345</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aluno 16</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>123456789-27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aluno 17</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123456789-28</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>aluno 18</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>123456789-29</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>aluno 19</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>123456789-30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>aluno 20</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>123456789-31</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>aluno 21</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>123456789-32</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>aluno 22</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>123456789-33</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>aluno 23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123456789-34</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>aluno 24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>123456789-35</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>aluno 25</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>123456789-36</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>aluno 26</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>123456789-37</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>aluno 27</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>123456789-38</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>aluno 28</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>123456789-39</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>aluno 29</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>123456789-40</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>teste@gmail.com 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Joao</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>45612378912</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>asdasad</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>147852369-14</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>pedro@gmail.com</t>
         </is>
       </c>
     </row>

--- a/Sistema/Dados Cadastrais.xlsx
+++ b/Sistema/Dados Cadastrais.xlsx
@@ -440,7 +440,7 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col width="12.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="19.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
@@ -1197,7 +1197,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="40" customWidth="1" min="1" max="8"/>
   </cols>
@@ -1342,6 +1342,16 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>teste@gmail.com 3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Paulo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15785297584</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1713,7 +1723,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="40" customWidth="1" min="1" max="8"/>
   </cols>

--- a/Sistema/Dados Cadastrais.xlsx
+++ b/Sistema/Dados Cadastrais.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
@@ -1017,6 +1017,60 @@
       <c r="E32" t="inlineStr">
         <is>
           <t>LX6cjEH</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Paloma</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>157852481-74</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>paloma@teste.com</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>paloma41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>TQJdtf6</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>nichon</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>147852369-14</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>nichon@gmail.com</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>nichon22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>aVBGNRP</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,6 +1230,33 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>985748127-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>157852147-52</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>carlos@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>carlos70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>157852147-52</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1358,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1319,12 +1400,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1442,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1388,12 +1469,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1415,12 +1496,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1442,12 +1523,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1469,12 +1550,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1496,12 +1577,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1523,12 +1604,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1550,12 +1631,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1577,12 +1658,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1604,12 +1685,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1712,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1658,12 +1739,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1685,24 +1766,24 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/10/2010</t>
+          <t>10/10/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>08/04/2011</t>
+          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1786,6 +1867,21 @@
           <t>teste@gmail.com 16</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>157852147-52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Grupo 1 - aluno 16, aluno 17, aluno 18, aluno 19, aluno 20, aluno 21, aluno 22</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1803,6 +1899,11 @@
           <t>teste@gmail.com 17</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Grupo 2 - aluno 23, aluno 24, aluno 25, aluno 26, aluno 27, aluno 28, aluno 29</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1820,6 +1921,11 @@
           <t>teste@gmail.com 18</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Grupo 3 - Joao, pedro, Aluno 18, Paloma, nichon</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1837,6 +1943,11 @@
           <t>teste@gmail.com 19</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Grupo 4 - pedro, Aluno 18, Paloma, nichon</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2039,6 +2150,57 @@
       <c r="C17" t="inlineStr">
         <is>
           <t>pedro@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Aluno 18</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CPF 18</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Email18@exemplo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Paloma</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>157852481-74</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>paloma@teste.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nichon</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>147852369-14</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>nichon@gmail.com</t>
         </is>
       </c>
     </row>

--- a/Sistema/Dados Cadastrais.xlsx
+++ b/Sistema/Dados Cadastrais.xlsx
@@ -1272,7 +1272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -1316,12 +1316,27 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Inicio de Semestre</t>
+          <t>Início do Curso</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Fim de Semestre</t>
+          <t>Fim do Curso</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Início do Ciclo</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Término do Ciclo</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Dias do Ciclo</t>
         </is>
       </c>
     </row>
@@ -1358,13 +1373,26 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/10/2020</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
-        </is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>21/12/2023</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -1408,6 +1436,19 @@
           <t>08/04/2021</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>22/12/2023</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>03/03/2024</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1450,6 +1491,19 @@
           <t>08/04/2021</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>15/05/2024</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1477,6 +1531,19 @@
           <t>08/04/2021</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>16/05/2024</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>27/07/2024</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1503,6 +1570,19 @@
         <is>
           <t>08/04/2021</t>
         </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>28/07/2024</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="7">

--- a/Sistema/Dados Cadastrais.xlsx
+++ b/Sistema/Dados Cadastrais.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Alunos" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -40,6 +40,13 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -58,20 +65,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -442,11 +454,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col width="12.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="19.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12.7109375" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="19.28515625" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" s="4">
       <c r="A1" t="inlineStr">
         <is>
           <t>Nome</t>
@@ -1120,12 +1132,19 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col width="6.42578125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="12.7109375" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="8.140625" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="12.7109375" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" s="4">
       <c r="A1" t="inlineStr">
         <is>
           <t>Nome</t>
@@ -1152,7 +1171,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" s="4">
       <c r="A2" t="inlineStr">
         <is>
           <t>Silva</t>
@@ -1272,15 +1291,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="8"/>
+    <col width="40" customWidth="1" style="4" min="1" max="5"/>
+    <col width="52" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="40" customWidth="1" style="4" min="7" max="8"/>
+    <col width="13.28515625" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
+    <col width="16" bestFit="1" customWidth="1" style="4" min="10" max="10"/>
+    <col width="12.140625" bestFit="1" customWidth="1" style="4" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1371,7 +1395,7 @@
           <t>Grupo 1 - aluno 1, aluno 2, aluno 3, aluno 4, aluno 5</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>10/10/2023</t>
         </is>
@@ -1386,13 +1410,13 @@
           <t>10/10/2023</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>21/12/2023</t>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>73</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3">
@@ -1426,28 +1450,18 @@
           <t>Grupo 2 - aluno 6, aluno 7, aluno 8, aluno 9, aluno 10</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>22/12/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>03/03/2024</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>73</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="4">
@@ -1481,28 +1495,18 @@
           <t>Grupo 3 - aluno 11, aluno 12, aluno 13, aluno 14, aluno 15</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>04/03/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>15/05/2024</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>73</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="5">
@@ -1521,29 +1525,6 @@
           <t>teste@gmail.com 4</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>16/05/2024</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>27/07/2024</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>73</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1561,29 +1542,6 @@
           <t>teste@gmail.com 5</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>28/07/2024</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>10/10/2024</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>74</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1601,16 +1559,6 @@
           <t>teste@gmail.com 6</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1628,16 +1576,6 @@
           <t>teste@gmail.com 7</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1655,16 +1593,6 @@
           <t>teste@gmail.com 8</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1682,16 +1610,7 @@
           <t>teste@gmail.com 9</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
+      <c r="I10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1709,16 +1628,7 @@
           <t>teste@gmail.com 10</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
+      <c r="I11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1736,16 +1646,6 @@
           <t>teste@gmail.com 11</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1763,16 +1663,6 @@
           <t>teste@gmail.com 12</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1790,16 +1680,6 @@
           <t>teste@gmail.com 13</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1817,16 +1697,6 @@
           <t>teste@gmail.com 14</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1842,28 +1712,6 @@
       <c r="C16" t="inlineStr">
         <is>
           <t>teste@gmail.com 15</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>10/10/2020</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>08/04/2021</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1729,14 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="8"/>
+    <col width="40" customWidth="1" style="4" min="1" max="5"/>
+    <col width="69.42578125" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="40" customWidth="1" style="4" min="7" max="8"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Sistema/Dados Cadastrais.xlsx
+++ b/Sistema/Dados Cadastrais.xlsx
@@ -1412,11 +1412,11 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>10/10/2024</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>367</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1452,16 +1452,16 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -1497,16 +1497,16 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1525,6 +1525,19 @@
           <t>teste@gmail.com 4</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>10/01/2024</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>10/02/2024</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1541,6 +1554,19 @@
         <is>
           <t>teste@gmail.com 5</t>
         </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>02/05/2024</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>05/06/2024</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
